--- a/webapps/glaf/WEB-INF/conf/report/templates/MedicalExaminationStatistics.xlsx
+++ b/webapps/glaf/WEB-INF/conf/report/templates/MedicalExaminationStatistics.xlsx
@@ -211,11 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超重
-（略重）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体格发育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -981,6 +976,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>超重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -989,7 +988,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,12 +1018,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1460,7 +1453,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1472,14 +1465,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1489,143 +1482,158 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1633,107 +1641,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2043,7 +2036,7 @@
   <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2075,186 +2068,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
     </row>
     <row r="2" spans="1:36" ht="22.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="90"/>
+      <c r="A2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
     </row>
     <row r="3" spans="1:36" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44" t="s">
+      <c r="A3" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="44" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
     </row>
     <row r="4" spans="1:36" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="65" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="65" t="s">
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="72" t="s">
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AJ4" s="74"/>
+      <c r="AJ4" s="59"/>
     </row>
     <row r="5" spans="1:36" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="68"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
@@ -2277,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>9</v>
@@ -2298,7 +2291,7 @@
         <v>14</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>15</v>
@@ -2307,19 +2300,19 @@
         <v>16</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y5" s="5" t="s">
         <v>19</v>
@@ -2331,700 +2324,700 @@
         <v>21</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC5" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="75"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="60"/>
     </row>
     <row r="6" spans="1:36" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="C6" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="D6" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="E6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="F6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="G6" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="Q6" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="R6" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="S6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="T6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="U6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="W6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W6" s="16" t="s">
+      <c r="X6" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="X6" s="24" t="s">
+      <c r="Y6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="36" t="s">
+      <c r="Z6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="Z6" s="36" t="s">
+      <c r="AA6" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="63" t="s">
+      <c r="AB6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="AB6" s="24" t="s">
+      <c r="AC6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AD6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" s="16" t="s">
+      <c r="AE6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AF6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AF6" s="10" t="s">
+      <c r="AG6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AH6" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AH6" s="16" t="s">
+      <c r="AI6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AI6" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ6" s="63"/>
+      <c r="AJ6" s="42"/>
     </row>
     <row r="7" spans="1:36" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="Q7" s="29"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="U7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="X7" s="29"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="12" t="s">
+      <c r="AD7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="AD7" s="17" t="s">
+      <c r="AE7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AF7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AG7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH7" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AG7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="42"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="43"/>
     </row>
     <row r="8" spans="1:36" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="64"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="35"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="P8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="Q8" s="30"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="14" t="s">
+      <c r="T8" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="U8" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="V8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="W8" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="W8" s="18" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD8" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD8" s="18" t="s">
+      <c r="AE8" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AF8" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AF8" s="14" t="s">
+      <c r="AG8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH8" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="AG8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH8" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="43"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="44"/>
     </row>
     <row r="9" spans="1:36" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="E9" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="F9" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="G9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="O9" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="P9" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="P9" s="41" t="s">
+      <c r="Q9" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="R9" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="S9" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="S9" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="T9" s="39" t="s">
+      <c r="U9" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="U9" s="39" t="s">
+      <c r="V9" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="V9" s="39" t="s">
+      <c r="W9" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="W9" s="41" t="s">
+      <c r="X9" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="X9" s="25" t="s">
+      <c r="Y9" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="Y9" s="52" t="s">
+      <c r="Z9" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="Z9" s="52" t="s">
+      <c r="AA9" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="AA9" s="48" t="s">
+      <c r="AB9" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="AB9" s="45" t="s">
+      <c r="AC9" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="AC9" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD9" s="41" t="s">
+      <c r="AE9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF9" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="AE9" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF9" s="39" t="s">
+      <c r="AG9" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH9" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="AG9" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH9" s="41" t="s">
+      <c r="AI9" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="AI9" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ9" s="48"/>
+      <c r="AJ9" s="74"/>
     </row>
     <row r="10" spans="1:36" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="49"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="75"/>
     </row>
     <row r="11" spans="1:36" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="M11" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="N11" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="O11" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="P11" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="Q11" s="82"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" s="40" t="s">
+      <c r="U11" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="U11" s="40" t="s">
+      <c r="V11" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="V11" s="40" t="s">
+      <c r="W11" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="W11" s="28" t="s">
+      <c r="X11" s="69"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD11" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD11" s="28" t="s">
+      <c r="AE11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF11" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="AE11" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF11" s="40" t="s">
+      <c r="AG11" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH11" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="AG11" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH11" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="49"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="75"/>
     </row>
     <row r="12" spans="1:36" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="34"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="O12" s="40"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="49"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="75"/>
     </row>
     <row r="13" spans="1:36" ht="21.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="34"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I13" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="K13" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="L13" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="M13" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="O13" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="O13" s="40" t="s">
+      <c r="P13" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="Q13" s="82"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="T13" s="37" t="s">
+      <c r="U13" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="U13" s="37" t="s">
+      <c r="V13" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="V13" s="37" t="s">
+      <c r="W13" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="W13" s="42" t="s">
+      <c r="X13" s="69"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD13" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD13" s="42" t="s">
+      <c r="AE13" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF13" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="AE13" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF13" s="37" t="s">
+      <c r="AG13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH13" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="AG13" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH13" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="49"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="75"/>
     </row>
     <row r="14" spans="1:36" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="35"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I14" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="K14" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="L14" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="M14" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="N14" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="N14" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="O14" s="51"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="47"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="50"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="76"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
@@ -3069,6 +3062,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AE11:AE12"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="X9:X14"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="AI9:AI14"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AC3:AJ3"/>
+    <mergeCell ref="AB9:AB14"/>
+    <mergeCell ref="AJ9:AJ14"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AF11:AF12"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q9:Q14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="R9:R14"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="Y9:Y14"/>
+    <mergeCell ref="Z9:Z14"/>
+    <mergeCell ref="AA9:AA14"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="AB6:AB8"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AH5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AI6:AI8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="G9:G14"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="A2:AJ2"/>
@@ -3085,77 +3149,6 @@
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="Z6:Z8"/>
     <mergeCell ref="X6:X8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="AJ6:AJ8"/>
-    <mergeCell ref="AB6:AB8"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AH5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AI6:AI8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="A9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="Y9:Y14"/>
-    <mergeCell ref="Z9:Z14"/>
-    <mergeCell ref="AA9:AA14"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q9:Q14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="R9:R14"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="AI9:AI14"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AC3:AJ3"/>
-    <mergeCell ref="AB9:AB14"/>
-    <mergeCell ref="AJ9:AJ14"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="AF11:AF12"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AH9:AH10"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AE11:AE12"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="X9:X14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AC13:AC14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
